--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_184.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,502 +488,513 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:22.020000', '0:00:30.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5394736842105263</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(67.0, 70.38)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:51.460000', '0:02:04.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -986,89 +1002,91 @@
           <t>schubert-winterreise_19</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:07.140000', '0:00:30.180000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:41.780000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1076,35 +1094,40 @@
           <t>schubert-winterreise_156</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1113,92 +1136,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7783505154639175</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58)]</t>
+          <t>[('0:00:00.656213', '0:01:10.800893')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.631133, 29.751133)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.08, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.159256', '0:01:09.054405')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
